--- a/Experiments/230126_ppk/buffers_sp.xlsx
+++ b/Experiments/230126_ppk/buffers_sp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230126_ppk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853CA62-E3BA-8C40-AF3E-9F74D2981E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114D1113-DCBC-384A-8FDE-95B1B4D01DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,15 +210,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +556,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,38 +748,38 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>25</v>
       </c>
-      <c r="E13" s="3">
-        <v>55.424999999999997</v>
+      <c r="E13">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -800,7 +796,7 @@
         <v>100</v>
       </c>
       <c r="E14">
-        <v>35.25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -837,20 +833,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -871,20 +867,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>25</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>60</v>
       </c>
     </row>
